--- a/results/150620-X16-1506preFPAW-2015-Bollenhut.xlsx
+++ b/results/150620-X16-1506preFPAW-2015-Bollenhut.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kolja\SkyDrive\Dokumente\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6622570-E16D-4CDD-AED3-3052F140B215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X16" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'X16'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'X16'!#REF!</definedName>
     <definedName name="_X16">'X16'!$T$18:$V$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,14 +29,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="1" shapeId="0">
+    <comment ref="F15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="2" shapeId="0">
+    <comment ref="P16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="2" shapeId="0">
+    <comment ref="Q16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="2" shapeId="0">
+    <comment ref="T17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U17" authorId="2" shapeId="0">
+    <comment ref="U17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V17" authorId="2" shapeId="0">
+    <comment ref="V17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="1" shapeId="0">
+    <comment ref="F40" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0" shapeId="0">
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="1" shapeId="0">
+    <comment ref="F65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0" shapeId="0">
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="1" shapeId="0">
+    <comment ref="E66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +511,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="101">
   <si>
     <t>Event:</t>
   </si>
@@ -811,11 +812,14 @@
   <si>
     <t>DEN</t>
   </si>
+  <si>
+    <t>Wegner, Alexander</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2461,169 +2465,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -2633,6 +2509,39 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2641,6 +2550,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2649,82 +2562,173 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3030,17 +3034,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle10">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86:T87"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -3119,18 +3123,18 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="227" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="229"/>
+      <c r="I2" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="180"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -3160,18 +3164,18 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="220" t="s">
+      <c r="I3" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -3211,18 +3215,18 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="231"/>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="232"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="186"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -3264,18 +3268,18 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="220" t="s">
+      <c r="I5" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="214"/>
-      <c r="O5" s="214"/>
-      <c r="P5" s="214"/>
-      <c r="Q5" s="214"/>
-      <c r="R5" s="215"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -3317,18 +3321,18 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="233">
+      <c r="I6" s="187">
         <v>26</v>
       </c>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="235"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="189"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -3370,18 +3374,18 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="236">
-        <v>1</v>
-      </c>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="237"/>
-      <c r="P7" s="237"/>
-      <c r="Q7" s="237"/>
-      <c r="R7" s="238"/>
+      <c r="I7" s="190">
+        <v>1</v>
+      </c>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="192"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -3423,18 +3427,18 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217" t="s">
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="221"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -3476,16 +3480,16 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="214"/>
-      <c r="Q9" s="214"/>
-      <c r="R9" s="215"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="183"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -3527,16 +3531,16 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="217"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="219"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="197"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -3566,18 +3570,18 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="220" t="s">
+      <c r="I11" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="214"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="214"/>
-      <c r="Q11" s="214"/>
-      <c r="R11" s="215"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="182"/>
+      <c r="R11" s="183"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -3611,18 +3615,18 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="216">
+      <c r="I12" s="193">
         <v>1706</v>
       </c>
-      <c r="J12" s="217"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="221"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="195"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -3643,23 +3647,23 @@
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="225"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="225"/>
-      <c r="N13" s="225"/>
-      <c r="O13" s="225"/>
-      <c r="P13" s="225"/>
-      <c r="Q13" s="225"/>
-      <c r="R13" s="226"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="177"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -3743,9 +3747,9 @@
       <c r="P15" s="49"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="184"/>
-      <c r="V15" s="185"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="200"/>
       <c r="W15" s="51">
         <v>7</v>
       </c>
@@ -3816,11 +3820,11 @@
         <v>39</v>
       </c>
       <c r="S16" s="1"/>
-      <c r="T16" s="177" t="s">
+      <c r="T16" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="178"/>
-      <c r="V16" s="179"/>
+      <c r="U16" s="202"/>
+      <c r="V16" s="203"/>
       <c r="W16" s="70" t="s">
         <v>41</v>
       </c>
@@ -3917,7 +3921,7 @@
     </row>
     <row r="18" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="180">
+      <c r="B18" s="204">
         <v>1</v>
       </c>
       <c r="C18" s="94">
@@ -3963,7 +3967,7 @@
       <c r="Q18" s="104">
         <v>152.5</v>
       </c>
-      <c r="R18" s="176" t="s">
+      <c r="R18" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S18" s="1"/>
@@ -4011,7 +4015,7 @@
     </row>
     <row r="19" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="181"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="117">
         <v>1</v>
       </c>
@@ -4055,7 +4059,7 @@
       <c r="Q19" s="126">
         <v>152.5</v>
       </c>
-      <c r="R19" s="176"/>
+      <c r="R19" s="207"/>
       <c r="S19" s="1"/>
       <c r="T19" s="127" t="s">
         <v>53</v>
@@ -4095,7 +4099,7 @@
     </row>
     <row r="20" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="182"/>
+      <c r="B20" s="206"/>
       <c r="C20" s="132">
         <v>1</v>
       </c>
@@ -4137,7 +4141,7 @@
       <c r="Q20" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="176"/>
+      <c r="R20" s="207"/>
       <c r="S20" s="1"/>
       <c r="T20" s="105" t="s">
         <v>85</v>
@@ -4177,7 +4181,7 @@
     </row>
     <row r="21" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="180">
+      <c r="B21" s="204">
         <v>2</v>
       </c>
       <c r="C21" s="94">
@@ -4223,7 +4227,7 @@
       <c r="Q21" s="104">
         <v>126.5</v>
       </c>
-      <c r="R21" s="176" t="s">
+      <c r="R21" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S21" s="1"/>
@@ -4271,7 +4275,7 @@
     </row>
     <row r="22" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="181"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="117">
         <v>2</v>
       </c>
@@ -4315,7 +4319,7 @@
       <c r="Q22" s="126">
         <v>126.5</v>
       </c>
-      <c r="R22" s="176"/>
+      <c r="R22" s="207"/>
       <c r="S22" s="1"/>
       <c r="T22" s="105" t="s">
         <v>55</v>
@@ -4355,7 +4359,7 @@
     </row>
     <row r="23" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="182"/>
+      <c r="B23" s="206"/>
       <c r="C23" s="132">
         <v>2</v>
       </c>
@@ -4397,7 +4401,7 @@
       <c r="Q23" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R23" s="176"/>
+      <c r="R23" s="207"/>
       <c r="S23" s="1"/>
       <c r="T23" s="127" t="s">
         <v>85</v>
@@ -4437,7 +4441,7 @@
     </row>
     <row r="24" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="173">
+      <c r="B24" s="208">
         <v>3</v>
       </c>
       <c r="C24" s="94">
@@ -4483,7 +4487,7 @@
       <c r="Q24" s="104">
         <v>104.5</v>
       </c>
-      <c r="R24" s="176" t="s">
+      <c r="R24" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S24" s="1"/>
@@ -4531,7 +4535,7 @@
     </row>
     <row r="25" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="174"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="117">
         <v>3</v>
       </c>
@@ -4575,7 +4579,7 @@
       <c r="Q25" s="126">
         <v>104.5</v>
       </c>
-      <c r="R25" s="176"/>
+      <c r="R25" s="207"/>
       <c r="S25" s="1"/>
       <c r="T25" s="127" t="s">
         <v>57</v>
@@ -4615,7 +4619,7 @@
     </row>
     <row r="26" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="175"/>
+      <c r="B26" s="210"/>
       <c r="C26" s="132">
         <v>3</v>
       </c>
@@ -4657,7 +4661,7 @@
       <c r="Q26" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="176"/>
+      <c r="R26" s="207"/>
       <c r="S26" s="1"/>
       <c r="T26" s="105" t="s">
         <v>85</v>
@@ -4697,7 +4701,7 @@
     </row>
     <row r="27" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="173">
+      <c r="B27" s="208">
         <v>4</v>
       </c>
       <c r="C27" s="94">
@@ -4743,7 +4747,7 @@
       <c r="Q27" s="104">
         <v>92</v>
       </c>
-      <c r="R27" s="176" t="s">
+      <c r="R27" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="1"/>
@@ -4791,7 +4795,7 @@
     </row>
     <row r="28" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="174"/>
+      <c r="B28" s="209"/>
       <c r="C28" s="117">
         <v>4</v>
       </c>
@@ -4835,7 +4839,7 @@
       <c r="Q28" s="126">
         <v>92</v>
       </c>
-      <c r="R28" s="176"/>
+      <c r="R28" s="207"/>
       <c r="S28" s="1"/>
       <c r="T28" s="105" t="s">
         <v>59</v>
@@ -4875,7 +4879,7 @@
     </row>
     <row r="29" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="175"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="132">
         <v>4</v>
       </c>
@@ -4917,7 +4921,7 @@
       <c r="Q29" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="176"/>
+      <c r="R29" s="207"/>
       <c r="S29" s="1"/>
       <c r="T29" s="127" t="s">
         <v>85</v>
@@ -4957,7 +4961,7 @@
     </row>
     <row r="30" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="173">
+      <c r="B30" s="208">
         <v>5</v>
       </c>
       <c r="C30" s="94">
@@ -4967,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F30" s="96" t="s">
         <v>61</v>
@@ -5003,7 +5007,7 @@
       <c r="Q30" s="104">
         <v>76.5</v>
       </c>
-      <c r="R30" s="176" t="s">
+      <c r="R30" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S30" s="1"/>
@@ -5051,7 +5055,7 @@
     </row>
     <row r="31" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="174"/>
+      <c r="B31" s="209"/>
       <c r="C31" s="117">
         <v>5</v>
       </c>
@@ -5095,7 +5099,7 @@
       <c r="Q31" s="126">
         <v>76.5</v>
       </c>
-      <c r="R31" s="176"/>
+      <c r="R31" s="207"/>
       <c r="S31" s="1"/>
       <c r="T31" s="127" t="s">
         <v>62</v>
@@ -5135,7 +5139,7 @@
     </row>
     <row r="32" spans="1:34" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="175"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="132">
         <v>5</v>
       </c>
@@ -5177,7 +5181,7 @@
       <c r="Q32" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R32" s="176"/>
+      <c r="R32" s="207"/>
       <c r="S32" s="1"/>
       <c r="T32" s="105" t="s">
         <v>85</v>
@@ -5217,7 +5221,7 @@
     </row>
     <row r="33" spans="1:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="173">
+      <c r="B33" s="208">
         <v>6</v>
       </c>
       <c r="C33" s="94">
@@ -5263,7 +5267,7 @@
       <c r="Q33" s="104">
         <v>53</v>
       </c>
-      <c r="R33" s="176" t="s">
+      <c r="R33" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S33" s="1"/>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="34" spans="1:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="174"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="117">
         <v>6</v>
       </c>
@@ -5358,7 +5362,7 @@
       <c r="Q34" s="126">
         <v>53</v>
       </c>
-      <c r="R34" s="176"/>
+      <c r="R34" s="207"/>
       <c r="S34" s="1"/>
       <c r="T34" s="105" t="s">
         <v>65</v>
@@ -5399,7 +5403,7 @@
     </row>
     <row r="35" spans="1:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="175"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="132">
         <v>6</v>
       </c>
@@ -5441,7 +5445,7 @@
       <c r="Q35" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R35" s="176"/>
+      <c r="R35" s="207"/>
       <c r="S35" s="1"/>
       <c r="T35" s="127" t="s">
         <v>85</v>
@@ -5482,7 +5486,7 @@
     </row>
     <row r="36" spans="1:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="173">
+      <c r="B36" s="208">
         <v>7</v>
       </c>
       <c r="C36" s="94">
@@ -5528,7 +5532,7 @@
       <c r="Q36" s="104">
         <v>49.5</v>
       </c>
-      <c r="R36" s="176" t="s">
+      <c r="R36" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S36" s="1"/>
@@ -5577,7 +5581,7 @@
     </row>
     <row r="37" spans="1:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="174"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="117">
         <v>7</v>
       </c>
@@ -5621,7 +5625,7 @@
       <c r="Q37" s="126">
         <v>49.5</v>
       </c>
-      <c r="R37" s="176"/>
+      <c r="R37" s="207"/>
       <c r="S37" s="1"/>
       <c r="T37" s="127" t="s">
         <v>67</v>
@@ -5662,7 +5666,7 @@
     </row>
     <row r="38" spans="1:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="175"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="132">
         <v>7</v>
       </c>
@@ -5704,7 +5708,7 @@
       <c r="Q38" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R38" s="176"/>
+      <c r="R38" s="207"/>
       <c r="S38" s="1"/>
       <c r="T38" s="105" t="s">
         <v>85</v>
@@ -5820,9 +5824,9 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
       <c r="S40" s="43"/>
-      <c r="T40" s="183"/>
-      <c r="U40" s="184"/>
-      <c r="V40" s="204"/>
+      <c r="T40" s="198"/>
+      <c r="U40" s="199"/>
+      <c r="V40" s="220"/>
       <c r="W40" s="155">
         <v>6</v>
       </c>
@@ -5859,57 +5863,57 @@
     </row>
     <row r="41" spans="1:43" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="221" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="156"/>
       <c r="D41" s="156"/>
-      <c r="E41" s="208" t="s">
+      <c r="E41" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="186" t="s">
+      <c r="F41" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="186" t="s">
+      <c r="G41" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="213" t="s">
+      <c r="H41" s="230" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="157"/>
-      <c r="J41" s="205" t="s">
+      <c r="J41" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="N41" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" s="186" t="s">
+      <c r="K41" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="O41" s="227" t="s">
         <v>86</v>
       </c>
-      <c r="P41" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q41" s="189" t="s">
+      <c r="P41" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q41" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="192" t="s">
+      <c r="R41" s="236" t="s">
         <v>39</v>
       </c>
       <c r="S41" s="43"/>
-      <c r="T41" s="195" t="s">
+      <c r="T41" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="U41" s="196"/>
-      <c r="V41" s="197"/>
+      <c r="U41" s="212"/>
+      <c r="V41" s="213"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4" t="s">
@@ -5942,39 +5946,39 @@
     </row>
     <row r="42" spans="1:43" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="206"/>
+      <c r="B42" s="222"/>
       <c r="C42" s="158"/>
       <c r="D42" s="158"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="211"/>
-      <c r="G42" s="209"/>
-      <c r="H42" s="190"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="231"/>
       <c r="I42" s="157"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="N42" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="O42" s="187" t="s">
+      <c r="J42" s="222"/>
+      <c r="K42" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="P42" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="193"/>
+      <c r="P42" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42" s="231"/>
+      <c r="R42" s="237"/>
       <c r="S42" s="43"/>
-      <c r="T42" s="198"/>
-      <c r="U42" s="199"/>
-      <c r="V42" s="200"/>
+      <c r="T42" s="214"/>
+      <c r="U42" s="215"/>
+      <c r="V42" s="216"/>
       <c r="W42" s="3"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4" t="s">
@@ -6007,39 +6011,39 @@
     </row>
     <row r="43" spans="1:43" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="206"/>
+      <c r="B43" s="222"/>
       <c r="C43" s="158"/>
       <c r="D43" s="158"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="209"/>
-      <c r="H43" s="190"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="231"/>
       <c r="I43" s="157"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="L43" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="M43" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="N43" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="O43" s="187" t="s">
+      <c r="J43" s="222"/>
+      <c r="K43" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="M43" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="N43" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="P43" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="193"/>
+      <c r="P43" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43" s="231"/>
+      <c r="R43" s="237"/>
       <c r="S43" s="43"/>
-      <c r="T43" s="198"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="200"/>
+      <c r="T43" s="214"/>
+      <c r="U43" s="215"/>
+      <c r="V43" s="216"/>
       <c r="W43" s="3"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4" t="s">
@@ -6071,38 +6075,38 @@
       <c r="AQ43"/>
     </row>
     <row r="44" spans="1:43" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="207"/>
+      <c r="B44" s="223"/>
       <c r="C44" s="159"/>
       <c r="D44" s="159"/>
-      <c r="E44" s="210"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="191"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="232"/>
       <c r="I44" s="65"/>
-      <c r="J44" s="207"/>
-      <c r="K44" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="M44" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="N44" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="O44" s="188" t="s">
+      <c r="J44" s="223"/>
+      <c r="K44" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" s="234" t="s">
         <v>86</v>
       </c>
-      <c r="P44" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q44" s="191"/>
-      <c r="R44" s="194"/>
-      <c r="T44" s="201"/>
-      <c r="U44" s="202"/>
-      <c r="V44" s="203"/>
+      <c r="P44" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44" s="232"/>
+      <c r="R44" s="238"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="218"/>
+      <c r="V44" s="219"/>
       <c r="W44" s="3"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4" t="s">
@@ -6201,7 +6205,7 @@
       <c r="AQ45"/>
     </row>
     <row r="46" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="180">
+      <c r="B46" s="204">
         <v>1</v>
       </c>
       <c r="C46" s="94">
@@ -6247,7 +6251,7 @@
       <c r="Q46" s="104">
         <v>0</v>
       </c>
-      <c r="R46" s="176" t="s">
+      <c r="R46" s="207" t="s">
         <v>52</v>
       </c>
       <c r="T46" s="105" t="s">
@@ -6302,7 +6306,7 @@
       <c r="AQ46"/>
     </row>
     <row r="47" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="181"/>
+      <c r="B47" s="205"/>
       <c r="C47" s="117">
         <v>1</v>
       </c>
@@ -6346,7 +6350,7 @@
       <c r="Q47" s="126">
         <v>0</v>
       </c>
-      <c r="R47" s="176"/>
+      <c r="R47" s="207"/>
       <c r="T47" s="162" t="s">
         <v>85</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="AQ47"/>
     </row>
     <row r="48" spans="1:43" s="43" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="182"/>
+      <c r="B48" s="206"/>
       <c r="C48" s="132">
         <v>1</v>
       </c>
@@ -6435,7 +6439,7 @@
       <c r="Q48" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R48" s="176"/>
+      <c r="R48" s="207"/>
       <c r="S48" s="1"/>
       <c r="T48" s="164" t="s">
         <v>85</v>
@@ -6475,7 +6479,7 @@
       <c r="AI48" s="7"/>
     </row>
     <row r="49" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="180">
+      <c r="B49" s="204">
         <v>2</v>
       </c>
       <c r="C49" s="94">
@@ -6521,7 +6525,7 @@
       <c r="Q49" s="104">
         <v>0</v>
       </c>
-      <c r="R49" s="176" t="s">
+      <c r="R49" s="207" t="s">
         <v>52</v>
       </c>
       <c r="T49" s="162" t="s">
@@ -6576,7 +6580,7 @@
       <c r="AQ49"/>
     </row>
     <row r="50" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="181"/>
+      <c r="B50" s="205"/>
       <c r="C50" s="117">
         <v>2</v>
       </c>
@@ -6620,7 +6624,7 @@
       <c r="Q50" s="126">
         <v>0</v>
       </c>
-      <c r="R50" s="176"/>
+      <c r="R50" s="207"/>
       <c r="T50" s="164" t="s">
         <v>85</v>
       </c>
@@ -6667,7 +6671,7 @@
       <c r="AQ50"/>
     </row>
     <row r="51" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="182"/>
+      <c r="B51" s="206"/>
       <c r="C51" s="132">
         <v>2</v>
       </c>
@@ -6709,7 +6713,7 @@
       <c r="Q51" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R51" s="176"/>
+      <c r="R51" s="207"/>
       <c r="T51" s="162" t="s">
         <v>85</v>
       </c>
@@ -6756,7 +6760,7 @@
       <c r="AQ51"/>
     </row>
     <row r="52" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="173">
+      <c r="B52" s="208">
         <v>3</v>
       </c>
       <c r="C52" s="94">
@@ -6802,7 +6806,7 @@
       <c r="Q52" s="104">
         <v>0</v>
       </c>
-      <c r="R52" s="176" t="s">
+      <c r="R52" s="207" t="s">
         <v>52</v>
       </c>
       <c r="T52" s="164" t="s">
@@ -6857,7 +6861,7 @@
       <c r="AQ52"/>
     </row>
     <row r="53" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="174"/>
+      <c r="B53" s="209"/>
       <c r="C53" s="117">
         <v>3</v>
       </c>
@@ -6901,7 +6905,7 @@
       <c r="Q53" s="126">
         <v>0</v>
       </c>
-      <c r="R53" s="176"/>
+      <c r="R53" s="207"/>
       <c r="T53" s="162" t="s">
         <v>85</v>
       </c>
@@ -6948,7 +6952,7 @@
       <c r="AQ53"/>
     </row>
     <row r="54" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="175"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="132">
         <v>3</v>
       </c>
@@ -6990,7 +6994,7 @@
       <c r="Q54" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R54" s="176"/>
+      <c r="R54" s="207"/>
       <c r="T54" s="164" t="s">
         <v>85</v>
       </c>
@@ -7037,7 +7041,7 @@
       <c r="AQ54"/>
     </row>
     <row r="55" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="173">
+      <c r="B55" s="208">
         <v>4</v>
       </c>
       <c r="C55" s="94">
@@ -7083,7 +7087,7 @@
       <c r="Q55" s="104">
         <v>0</v>
       </c>
-      <c r="R55" s="176" t="s">
+      <c r="R55" s="207" t="s">
         <v>52</v>
       </c>
       <c r="T55" s="162" t="s">
@@ -7138,7 +7142,7 @@
       <c r="AQ55"/>
     </row>
     <row r="56" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="174"/>
+      <c r="B56" s="209"/>
       <c r="C56" s="117">
         <v>4</v>
       </c>
@@ -7182,7 +7186,7 @@
       <c r="Q56" s="126">
         <v>0</v>
       </c>
-      <c r="R56" s="176"/>
+      <c r="R56" s="207"/>
       <c r="T56" s="164" t="s">
         <v>85</v>
       </c>
@@ -7229,7 +7233,7 @@
       <c r="AQ56"/>
     </row>
     <row r="57" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="175"/>
+      <c r="B57" s="210"/>
       <c r="C57" s="132">
         <v>4</v>
       </c>
@@ -7271,7 +7275,7 @@
       <c r="Q57" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R57" s="176"/>
+      <c r="R57" s="207"/>
       <c r="T57" s="162" t="s">
         <v>85</v>
       </c>
@@ -7318,7 +7322,7 @@
       <c r="AQ57"/>
     </row>
     <row r="58" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="173">
+      <c r="B58" s="208">
         <v>5</v>
       </c>
       <c r="C58" s="94">
@@ -7364,7 +7368,7 @@
       <c r="Q58" s="104">
         <v>38</v>
       </c>
-      <c r="R58" s="176" t="s">
+      <c r="R58" s="207" t="s">
         <v>52</v>
       </c>
       <c r="T58" s="164" t="s">
@@ -7419,7 +7423,7 @@
       <c r="AQ58"/>
     </row>
     <row r="59" spans="1:43" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="174"/>
+      <c r="B59" s="209"/>
       <c r="C59" s="117">
         <v>5</v>
       </c>
@@ -7463,7 +7467,7 @@
       <c r="Q59" s="126">
         <v>38</v>
       </c>
-      <c r="R59" s="176"/>
+      <c r="R59" s="207"/>
       <c r="T59" s="162" t="s">
         <v>71</v>
       </c>
@@ -7511,7 +7515,7 @@
     </row>
     <row r="60" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="175"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="132">
         <v>5</v>
       </c>
@@ -7553,7 +7557,7 @@
       <c r="Q60" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R60" s="176"/>
+      <c r="R60" s="207"/>
       <c r="S60" s="1"/>
       <c r="T60" s="164" t="s">
         <v>85</v>
@@ -7602,7 +7606,7 @@
     </row>
     <row r="61" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="173">
+      <c r="B61" s="208">
         <v>6</v>
       </c>
       <c r="C61" s="94">
@@ -7648,7 +7652,7 @@
       <c r="Q61" s="104">
         <v>28</v>
       </c>
-      <c r="R61" s="176" t="s">
+      <c r="R61" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S61" s="1"/>
@@ -7705,7 +7709,7 @@
     </row>
     <row r="62" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="174"/>
+      <c r="B62" s="209"/>
       <c r="C62" s="117">
         <v>6</v>
       </c>
@@ -7749,7 +7753,7 @@
       <c r="Q62" s="126">
         <v>28</v>
       </c>
-      <c r="R62" s="176"/>
+      <c r="R62" s="207"/>
       <c r="S62" s="1"/>
       <c r="T62" s="164" t="s">
         <v>73</v>
@@ -7798,7 +7802,7 @@
     </row>
     <row r="63" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="175"/>
+      <c r="B63" s="210"/>
       <c r="C63" s="132">
         <v>6</v>
       </c>
@@ -7840,7 +7844,7 @@
       <c r="Q63" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R63" s="176"/>
+      <c r="R63" s="207"/>
       <c r="S63" s="1"/>
       <c r="T63" s="162" t="s">
         <v>85</v>
@@ -7963,9 +7967,9 @@
       <c r="Q65" s="50"/>
       <c r="R65" s="50"/>
       <c r="S65" s="43"/>
-      <c r="T65" s="183"/>
-      <c r="U65" s="184"/>
-      <c r="V65" s="185"/>
+      <c r="T65" s="198"/>
+      <c r="U65" s="199"/>
+      <c r="V65" s="200"/>
       <c r="W65" s="155">
         <v>7</v>
       </c>
@@ -8046,11 +8050,11 @@
       <c r="R66" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="T66" s="177" t="s">
+      <c r="T66" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="U66" s="178"/>
-      <c r="V66" s="179"/>
+      <c r="U66" s="202"/>
+      <c r="V66" s="203"/>
       <c r="W66" s="3"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4" t="s">
@@ -8151,7 +8155,7 @@
     </row>
     <row r="68" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="172"/>
-      <c r="B68" s="180">
+      <c r="B68" s="204">
         <v>1</v>
       </c>
       <c r="C68" s="94">
@@ -8197,7 +8201,7 @@
       <c r="Q68" s="104">
         <v>0</v>
       </c>
-      <c r="R68" s="176" t="s">
+      <c r="R68" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S68" s="1"/>
@@ -8254,7 +8258,7 @@
     </row>
     <row r="69" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="172"/>
-      <c r="B69" s="181"/>
+      <c r="B69" s="205"/>
       <c r="C69" s="117">
         <v>1</v>
       </c>
@@ -8298,7 +8302,7 @@
       <c r="Q69" s="126">
         <v>0</v>
       </c>
-      <c r="R69" s="176"/>
+      <c r="R69" s="207"/>
       <c r="S69" s="1"/>
       <c r="T69" s="162" t="s">
         <v>85</v>
@@ -8347,7 +8351,7 @@
     </row>
     <row r="70" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="172"/>
-      <c r="B70" s="182"/>
+      <c r="B70" s="206"/>
       <c r="C70" s="132">
         <v>1</v>
       </c>
@@ -8389,7 +8393,7 @@
       <c r="Q70" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R70" s="176"/>
+      <c r="R70" s="207"/>
       <c r="S70" s="1"/>
       <c r="T70" s="164" t="s">
         <v>85</v>
@@ -8438,7 +8442,7 @@
     </row>
     <row r="71" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="172"/>
-      <c r="B71" s="180">
+      <c r="B71" s="204">
         <v>2</v>
       </c>
       <c r="C71" s="94">
@@ -8484,7 +8488,7 @@
       <c r="Q71" s="104">
         <v>0</v>
       </c>
-      <c r="R71" s="176" t="s">
+      <c r="R71" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S71" s="1"/>
@@ -8541,7 +8545,7 @@
     </row>
     <row r="72" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="172"/>
-      <c r="B72" s="181"/>
+      <c r="B72" s="205"/>
       <c r="C72" s="117">
         <v>2</v>
       </c>
@@ -8585,7 +8589,7 @@
       <c r="Q72" s="126">
         <v>0</v>
       </c>
-      <c r="R72" s="176"/>
+      <c r="R72" s="207"/>
       <c r="S72" s="1"/>
       <c r="T72" s="164" t="s">
         <v>85</v>
@@ -8634,7 +8638,7 @@
     </row>
     <row r="73" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="172"/>
-      <c r="B73" s="182"/>
+      <c r="B73" s="206"/>
       <c r="C73" s="132">
         <v>2</v>
       </c>
@@ -8676,7 +8680,7 @@
       <c r="Q73" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R73" s="176"/>
+      <c r="R73" s="207"/>
       <c r="S73" s="1"/>
       <c r="T73" s="162" t="s">
         <v>85</v>
@@ -8725,7 +8729,7 @@
     </row>
     <row r="74" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="172"/>
-      <c r="B74" s="173">
+      <c r="B74" s="208">
         <v>3</v>
       </c>
       <c r="C74" s="94">
@@ -8771,7 +8775,7 @@
       <c r="Q74" s="104">
         <v>0</v>
       </c>
-      <c r="R74" s="176" t="s">
+      <c r="R74" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S74" s="1"/>
@@ -8828,7 +8832,7 @@
     </row>
     <row r="75" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="172"/>
-      <c r="B75" s="174"/>
+      <c r="B75" s="209"/>
       <c r="C75" s="117">
         <v>3</v>
       </c>
@@ -8872,7 +8876,7 @@
       <c r="Q75" s="126">
         <v>0</v>
       </c>
-      <c r="R75" s="176"/>
+      <c r="R75" s="207"/>
       <c r="S75" s="1"/>
       <c r="T75" s="162" t="s">
         <v>85</v>
@@ -8921,7 +8925,7 @@
     </row>
     <row r="76" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="172"/>
-      <c r="B76" s="175"/>
+      <c r="B76" s="210"/>
       <c r="C76" s="132">
         <v>3</v>
       </c>
@@ -8963,7 +8967,7 @@
       <c r="Q76" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R76" s="176"/>
+      <c r="R76" s="207"/>
       <c r="S76" s="1"/>
       <c r="T76" s="164" t="s">
         <v>85</v>
@@ -9012,7 +9016,7 @@
     </row>
     <row r="77" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="172"/>
-      <c r="B77" s="173">
+      <c r="B77" s="208">
         <v>4</v>
       </c>
       <c r="C77" s="94">
@@ -9058,7 +9062,7 @@
       <c r="Q77" s="104">
         <v>40</v>
       </c>
-      <c r="R77" s="176" t="s">
+      <c r="R77" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S77" s="1"/>
@@ -9115,7 +9119,7 @@
     </row>
     <row r="78" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="172"/>
-      <c r="B78" s="174"/>
+      <c r="B78" s="209"/>
       <c r="C78" s="117">
         <v>4</v>
       </c>
@@ -9159,7 +9163,7 @@
       <c r="Q78" s="126">
         <v>40</v>
       </c>
-      <c r="R78" s="176"/>
+      <c r="R78" s="207"/>
       <c r="S78" s="1"/>
       <c r="T78" s="164" t="s">
         <v>76</v>
@@ -9208,7 +9212,7 @@
     </row>
     <row r="79" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="172"/>
-      <c r="B79" s="175"/>
+      <c r="B79" s="210"/>
       <c r="C79" s="132">
         <v>4</v>
       </c>
@@ -9250,7 +9254,7 @@
       <c r="Q79" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R79" s="176"/>
+      <c r="R79" s="207"/>
       <c r="S79" s="1"/>
       <c r="T79" s="162" t="s">
         <v>85</v>
@@ -9299,7 +9303,7 @@
     </row>
     <row r="80" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="172"/>
-      <c r="B80" s="173">
+      <c r="B80" s="208">
         <v>5</v>
       </c>
       <c r="C80" s="94">
@@ -9345,7 +9349,7 @@
       <c r="Q80" s="104">
         <v>30.5</v>
       </c>
-      <c r="R80" s="176" t="s">
+      <c r="R80" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S80" s="1"/>
@@ -9402,7 +9406,7 @@
     </row>
     <row r="81" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="172"/>
-      <c r="B81" s="174"/>
+      <c r="B81" s="209"/>
       <c r="C81" s="117">
         <v>5</v>
       </c>
@@ -9446,7 +9450,7 @@
       <c r="Q81" s="126">
         <v>30.5</v>
       </c>
-      <c r="R81" s="176"/>
+      <c r="R81" s="207"/>
       <c r="S81" s="1"/>
       <c r="T81" s="162" t="s">
         <v>79</v>
@@ -9495,7 +9499,7 @@
     </row>
     <row r="82" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="172"/>
-      <c r="B82" s="175"/>
+      <c r="B82" s="210"/>
       <c r="C82" s="132">
         <v>5</v>
       </c>
@@ -9537,7 +9541,7 @@
       <c r="Q82" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R82" s="176"/>
+      <c r="R82" s="207"/>
       <c r="S82" s="1"/>
       <c r="T82" s="164" t="s">
         <v>85</v>
@@ -9586,7 +9590,7 @@
     </row>
     <row r="83" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="172"/>
-      <c r="B83" s="173">
+      <c r="B83" s="208">
         <v>6</v>
       </c>
       <c r="C83" s="94">
@@ -9632,7 +9636,7 @@
       <c r="Q83" s="104">
         <v>22</v>
       </c>
-      <c r="R83" s="176" t="s">
+      <c r="R83" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S83" s="1"/>
@@ -9689,7 +9693,7 @@
     </row>
     <row r="84" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="172"/>
-      <c r="B84" s="174"/>
+      <c r="B84" s="209"/>
       <c r="C84" s="117">
         <v>6</v>
       </c>
@@ -9733,7 +9737,7 @@
       <c r="Q84" s="126">
         <v>22</v>
       </c>
-      <c r="R84" s="176"/>
+      <c r="R84" s="207"/>
       <c r="S84" s="1"/>
       <c r="T84" s="164" t="s">
         <v>81</v>
@@ -9782,7 +9786,7 @@
     </row>
     <row r="85" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="172"/>
-      <c r="B85" s="175"/>
+      <c r="B85" s="210"/>
       <c r="C85" s="132">
         <v>6</v>
       </c>
@@ -9824,7 +9828,7 @@
       <c r="Q85" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R85" s="176"/>
+      <c r="R85" s="207"/>
       <c r="S85" s="1"/>
       <c r="T85" s="162" t="s">
         <v>85</v>
@@ -9873,7 +9877,7 @@
     </row>
     <row r="86" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="172"/>
-      <c r="B86" s="173">
+      <c r="B86" s="208">
         <v>7</v>
       </c>
       <c r="C86" s="94">
@@ -9919,7 +9923,7 @@
       <c r="Q86" s="104">
         <v>20</v>
       </c>
-      <c r="R86" s="176" t="s">
+      <c r="R86" s="207" t="s">
         <v>52</v>
       </c>
       <c r="S86" s="1"/>
@@ -9976,7 +9980,7 @@
     </row>
     <row r="87" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="172"/>
-      <c r="B87" s="174"/>
+      <c r="B87" s="209"/>
       <c r="C87" s="117">
         <v>7</v>
       </c>
@@ -10020,7 +10024,7 @@
       <c r="Q87" s="126">
         <v>20</v>
       </c>
-      <c r="R87" s="176"/>
+      <c r="R87" s="207"/>
       <c r="S87" s="1"/>
       <c r="T87" s="162" t="s">
         <v>83</v>
@@ -10069,7 +10073,7 @@
     </row>
     <row r="88" spans="1:43" s="7" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="172"/>
-      <c r="B88" s="175"/>
+      <c r="B88" s="210"/>
       <c r="C88" s="132">
         <v>7</v>
       </c>
@@ -10111,7 +10115,7 @@
       <c r="Q88" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="R88" s="176"/>
+      <c r="R88" s="207"/>
       <c r="S88" s="1"/>
       <c r="T88" s="164" t="s">
         <v>85</v>
@@ -10211,6 +10215,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="R86:R88"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="R77:R79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="R83:R85"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="R74:R76"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="R55:R57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="T41:V44"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="O41:O44"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="R41:R44"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="R36:R38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:R13"/>
     <mergeCell ref="I2:R2"/>
@@ -10227,66 +10291,6 @@
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="R36:R38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="T41:V44"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="O41:O44"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="R41:R44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="R46:R48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="R74:R76"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="R55:R57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="R58:R60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="R86:R88"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="R77:R79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="R83:R85"/>
   </mergeCells>
   <conditionalFormatting sqref="T18:V38 T46:V63 T68:V88">
     <cfRule type="expression" dxfId="3" priority="37">
@@ -10309,34 +10313,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18:R38 R46:R63 R68:R88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18:R38 R46:R63 R68:R88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>yesno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F15 F40 F65">
+    <dataValidation type="list" allowBlank="1" sqref="F15 F40 F65" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E46:E63 E68:E88 E18:E38">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E46:E63 E68:E88 E18:E38" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65 B15 B40">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65 B15 B40" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I43 H40 H65:I65 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I43 H40 H65:I65 I15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9 I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9 I9" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 I8" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
